--- a/biology/Zoologie/Constriction/Constriction.xlsx
+++ b/biology/Zoologie/Constriction/Constriction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La constriction est une méthode de chasse utilisée par certains serpents pour tuer leur proie. Elle consiste pour le serpent à immobiliser la proie en enroulant son corps autour et dans le but de l'étreindre. Ceci provoque une coupure du flux sanguin (es), ce qui entraîne une perte de connaissance et un arrêt cardiaque. La plupart des espèces utilisant cette technique sont des serpents non venimeux (es) et sont qualifiées de serpents constricteurs, comme les anacondas, les boas ou les pythons[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La constriction est une méthode de chasse utilisée par certains serpents pour tuer leur proie. Elle consiste pour le serpent à immobiliser la proie en enroulant son corps autour et dans le but de l'étreindre. Ceci provoque une coupure du flux sanguin (es), ce qui entraîne une perte de connaissance et un arrêt cardiaque. La plupart des espèces utilisant cette technique sont des serpents non venimeux (es) et sont qualifiées de serpents constricteurs, comme les anacondas, les boas ou les pythons,.
 </t>
         </is>
       </c>
